--- a/results/mp/deberta/corona/confidence/42/stop-words-desired-0.1/homogenity_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-desired-0.1/homogenity_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="942">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="942">
   <si>
     <t>anchor score</t>
   </si>
@@ -184,577 +184,577 @@
     <t>deadly</t>
   </si>
   <si>
+    <t>blame</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>stolen</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>bastards</t>
+  </si>
+  <si>
+    <t>suffer</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>become</t>
+  </si>
+  <si>
+    <t>bbc</t>
+  </si>
+  <si>
+    <t>purpose</t>
+  </si>
+  <si>
+    <t>wage</t>
+  </si>
+  <si>
+    <t>ads</t>
+  </si>
+  <si>
+    <t>adults</t>
+  </si>
+  <si>
+    <t>child</t>
+  </si>
+  <si>
+    <t>crypt</t>
+  </si>
+  <si>
+    <t>pa</t>
+  </si>
+  <si>
+    <t>intentionally</t>
+  </si>
+  <si>
+    <t>meat</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>complaint</t>
+  </si>
+  <si>
+    <t>failure</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>disruption</t>
+  </si>
+  <si>
+    <t>banned</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>offering</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>safely</t>
+  </si>
+  <si>
+    <t>creative</t>
+  </si>
+  <si>
+    <t>benefits</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>welcome</t>
+  </si>
+  <si>
+    <t>prepared</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>shares</t>
+  </si>
+  <si>
+    <t>appreciate</t>
+  </si>
+  <si>
+    <t>helpful</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>excited</t>
+  </si>
+  <si>
+    <t>benefit</t>
+  </si>
+  <si>
+    <t>laugh</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>supporting</t>
+  </si>
+  <si>
+    <t>looks</t>
+  </si>
+  <si>
+    <t>insights</t>
+  </si>
+  <si>
+    <t>dedicated</t>
+  </si>
+  <si>
+    <t>internet</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>pretty</t>
+  </si>
+  <si>
+    <t>hopefully</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>updated</t>
+  </si>
+  <si>
+    <t>luck</t>
+  </si>
+  <si>
+    <t>listen</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>truly</t>
+  </si>
+  <si>
+    <t>handy</t>
+  </si>
+  <si>
+    <t>mr</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>highlight</t>
+  </si>
+  <si>
+    <t>res</t>
+  </si>
+  <si>
+    <t>bakery</t>
+  </si>
+  <si>
+    <t>clearly</t>
+  </si>
+  <si>
+    <t>asset</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>incredible</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>course</t>
+  </si>
+  <si>
+    <t>released</t>
+  </si>
+  <si>
+    <t>stimulus</t>
+  </si>
+  <si>
+    <t>solutions</t>
+  </si>
+  <si>
+    <t>cares</t>
+  </si>
+  <si>
+    <t>bright</t>
+  </si>
+  <si>
+    <t>toronto</t>
+  </si>
+  <si>
+    <t>allow</t>
+  </si>
+  <si>
+    <t>certainly</t>
+  </si>
+  <si>
+    <t>recipe</t>
+  </si>
+  <si>
+    <t>straight</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>secure</t>
+  </si>
+  <si>
+    <t>meals</t>
+  </si>
+  <si>
+    <t>rally</t>
+  </si>
+  <si>
+    <t>launched</t>
+  </si>
+  <si>
+    <t>workers</t>
+  </si>
+  <si>
+    <t>comfort</t>
+  </si>
+  <si>
+    <t>worldwide</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>hero</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>volunteer</t>
+  </si>
+  <si>
+    <t>series</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>atm</t>
+  </si>
+  <si>
+    <t>download</t>
+  </si>
+  <si>
+    <t>rich</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>greater</t>
+  </si>
+  <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>manufacturers</t>
+  </si>
+  <si>
+    <t>products</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>expert</t>
+  </si>
+  <si>
+    <t>1950</t>
+  </si>
+  <si>
+    <t>tuesday</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>euro</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>ac</t>
+  </si>
+  <si>
+    <t>adapt</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>blame</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>stolen</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>bastards</t>
-  </si>
-  <si>
-    <t>suffer</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>become</t>
-  </si>
-  <si>
-    <t>bbc</t>
-  </si>
-  <si>
-    <t>purpose</t>
-  </si>
-  <si>
-    <t>wage</t>
-  </si>
-  <si>
-    <t>ads</t>
-  </si>
-  <si>
-    <t>adults</t>
-  </si>
-  <si>
-    <t>child</t>
-  </si>
-  <si>
-    <t>crypt</t>
-  </si>
-  <si>
-    <t>pa</t>
-  </si>
-  <si>
-    <t>intentionally</t>
-  </si>
-  <si>
-    <t>meat</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>complaint</t>
-  </si>
-  <si>
-    <t>failure</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>disruption</t>
-  </si>
-  <si>
-    <t>banned</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>offering</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>safely</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>benefits</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>welcome</t>
-  </si>
-  <si>
-    <t>prepared</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>shares</t>
-  </si>
-  <si>
-    <t>appreciate</t>
-  </si>
-  <si>
-    <t>helpful</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>excited</t>
-  </si>
-  <si>
-    <t>benefit</t>
-  </si>
-  <si>
-    <t>laugh</t>
-  </si>
-  <si>
-    <t>options</t>
-  </si>
-  <si>
-    <t>supporting</t>
-  </si>
-  <si>
-    <t>looks</t>
-  </si>
-  <si>
-    <t>insights</t>
-  </si>
-  <si>
-    <t>dedicated</t>
-  </si>
-  <si>
-    <t>internet</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>pretty</t>
-  </si>
-  <si>
-    <t>hopefully</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>updated</t>
-  </si>
-  <si>
-    <t>luck</t>
-  </si>
-  <si>
-    <t>listen</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>truly</t>
-  </si>
-  <si>
-    <t>handy</t>
-  </si>
-  <si>
-    <t>mr</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>highlight</t>
-  </si>
-  <si>
-    <t>res</t>
-  </si>
-  <si>
-    <t>bakery</t>
-  </si>
-  <si>
-    <t>clearly</t>
-  </si>
-  <si>
-    <t>asset</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>experience</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>incredible</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>course</t>
-  </si>
-  <si>
-    <t>released</t>
-  </si>
-  <si>
-    <t>stimulus</t>
-  </si>
-  <si>
-    <t>solutions</t>
-  </si>
-  <si>
-    <t>cares</t>
-  </si>
-  <si>
-    <t>bright</t>
-  </si>
-  <si>
-    <t>toronto</t>
-  </si>
-  <si>
-    <t>allow</t>
-  </si>
-  <si>
-    <t>certainly</t>
-  </si>
-  <si>
-    <t>recipe</t>
-  </si>
-  <si>
-    <t>straight</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>secure</t>
-  </si>
-  <si>
-    <t>meals</t>
-  </si>
-  <si>
-    <t>rally</t>
-  </si>
-  <si>
-    <t>launched</t>
-  </si>
-  <si>
-    <t>workers</t>
-  </si>
-  <si>
-    <t>comfort</t>
-  </si>
-  <si>
-    <t>worldwide</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>hero</t>
-  </si>
-  <si>
-    <t>full</t>
-  </si>
-  <si>
-    <t>volunteer</t>
-  </si>
-  <si>
-    <t>series</t>
-  </si>
-  <si>
-    <t>buying</t>
-  </si>
-  <si>
-    <t>atm</t>
-  </si>
-  <si>
-    <t>download</t>
-  </si>
-  <si>
-    <t>rich</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>self</t>
-  </si>
-  <si>
-    <t>greater</t>
-  </si>
-  <si>
-    <t>insurance</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>manufacturers</t>
-  </si>
-  <si>
-    <t>products</t>
-  </si>
-  <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>expert</t>
-  </si>
-  <si>
-    <t>1950</t>
-  </si>
-  <si>
-    <t>tuesday</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>euro</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>ac</t>
-  </si>
-  <si>
-    <t>adapt</t>
-  </si>
-  <si>
-    <t>negative</t>
   </si>
   <si>
     <t>better</t>
@@ -3205,10 +3205,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3266,7 +3266,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.04116499774456842</v>
+        <v>0.04204244312022846</v>
       </c>
       <c r="C3">
         <v>202</v>
@@ -3287,28 +3287,28 @@
         <v>90</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>90</v>
+        <v>245</v>
       </c>
       <c r="K3">
-        <v>0.004863113897085332</v>
+        <v>0.007969770929800207</v>
       </c>
       <c r="L3">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="M3">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="N3">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>146</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3316,7 +3316,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.01476859174361075</v>
+        <v>0.0150833891015713</v>
       </c>
       <c r="C4">
         <v>26</v>
@@ -3337,16 +3337,16 @@
         <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K4">
-        <v>0.003928625434997743</v>
+        <v>0.007165755798980582</v>
       </c>
       <c r="L4">
-        <v>52</v>
+        <v>173</v>
       </c>
       <c r="M4">
-        <v>52</v>
+        <v>173</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -3358,7 +3358,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>11</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3366,7 +3366,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.01389045043858618</v>
+        <v>0.0141865299277386</v>
       </c>
       <c r="C5">
         <v>23</v>
@@ -3387,28 +3387,28 @@
         <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>248</v>
+        <v>88</v>
       </c>
       <c r="K5">
-        <v>0.003613809793360244</v>
+        <v>0.004863113897085332</v>
       </c>
       <c r="L5">
-        <v>44</v>
+        <v>235</v>
       </c>
       <c r="M5">
-        <v>44</v>
+        <v>237</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3416,7 +3416,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01044297137048282</v>
+        <v>0.01066556671699633</v>
       </c>
       <c r="C6">
         <v>13</v>
@@ -3437,16 +3437,16 @@
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K6">
-        <v>0.003445632442618338</v>
+        <v>0.003928625434997743</v>
       </c>
       <c r="L6">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="M6">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -3466,7 +3466,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01044297137048282</v>
+        <v>0.01066556671699633</v>
       </c>
       <c r="C7">
         <v>13</v>
@@ -3487,28 +3487,28 @@
         <v>13</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="K7">
-        <v>0.003363681982155685</v>
+        <v>0.003613809793360244</v>
       </c>
       <c r="L7">
-        <v>114</v>
+        <v>44</v>
       </c>
       <c r="M7">
-        <v>115</v>
+        <v>44</v>
       </c>
       <c r="N7">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3516,7 +3516,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01003328235476876</v>
+        <v>0.01024714504606564</v>
       </c>
       <c r="C8">
         <v>12</v>
@@ -3537,28 +3537,28 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>99</v>
+        <v>249</v>
       </c>
       <c r="K8">
-        <v>0.003232797366999701</v>
+        <v>0.003445632442618338</v>
       </c>
       <c r="L8">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="M8">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="N8">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>2998</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3566,7 +3566,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.009254009058757659</v>
+        <v>0.009451261285159019</v>
       </c>
       <c r="C9">
         <v>49</v>
@@ -3587,28 +3587,28 @@
         <v>466</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>250</v>
+        <v>96</v>
       </c>
       <c r="K9">
-        <v>0.003176716148821044</v>
+        <v>0.003363681982155685</v>
       </c>
       <c r="L9">
-        <v>34</v>
+        <v>114</v>
       </c>
       <c r="M9">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3616,7 +3616,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.008689077402571903</v>
+        <v>0.008874287926156708</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -3637,28 +3637,28 @@
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>251</v>
+        <v>97</v>
       </c>
       <c r="K10">
-        <v>0.003129651085494964</v>
+        <v>0.003232797366999701</v>
       </c>
       <c r="L10">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="M10">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2998</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3666,7 +3666,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.008689077402571903</v>
+        <v>0.008874287926156708</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -3687,16 +3687,16 @@
         <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K11">
-        <v>0.003081867346869298</v>
+        <v>0.003176716148821044</v>
       </c>
       <c r="L11">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M11">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>198</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3716,7 +3716,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.00819214073815118</v>
+        <v>0.008366758894383085</v>
       </c>
       <c r="C12">
         <v>8</v>
@@ -3737,16 +3737,16 @@
         <v>18</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K12">
-        <v>0.00293385030701592</v>
+        <v>0.003129651085494964</v>
       </c>
       <c r="L12">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M12">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -3758,7 +3758,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3766,7 +3766,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.00819214073815118</v>
+        <v>0.008366758894383085</v>
       </c>
       <c r="C13">
         <v>8</v>
@@ -3787,28 +3787,28 @@
         <v>11</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>94</v>
+        <v>252</v>
       </c>
       <c r="K13">
-        <v>0.002828545373878344</v>
+        <v>0.003081867346869298</v>
       </c>
       <c r="L13">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="M13">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="N13">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>24</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3816,7 +3816,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.00819214073815118</v>
+        <v>0.008366758894383085</v>
       </c>
       <c r="C14">
         <v>8</v>
@@ -3837,16 +3837,16 @@
         <v>2</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K14">
-        <v>0.002777957685828854</v>
+        <v>0.00293385030701592</v>
       </c>
       <c r="L14">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M14">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -3858,7 +3858,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -3866,7 +3866,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.00819214073815118</v>
+        <v>0.008366758894383085</v>
       </c>
       <c r="C15">
         <v>8</v>
@@ -3887,28 +3887,28 @@
         <v>2</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="K15">
-        <v>0.002777957685828854</v>
+        <v>0.002828545373878344</v>
       </c>
       <c r="L15">
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="M15">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -3916,7 +3916,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.007663045976598773</v>
+        <v>0.00782638630513126</v>
       </c>
       <c r="C16">
         <v>7</v>
@@ -3937,16 +3937,16 @@
         <v>5</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K16">
-        <v>0.00266897541348256</v>
+        <v>0.002777957685828854</v>
       </c>
       <c r="L16">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M16">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -3958,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -3966,7 +3966,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.007094601990616324</v>
+        <v>0.007245825749875153</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -3987,16 +3987,16 @@
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K17">
-        <v>0.002612780163835795</v>
+        <v>0.002777957685828854</v>
       </c>
       <c r="L17">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M17">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -4008,7 +4008,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -4016,7 +4016,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.007094601990616324</v>
+        <v>0.007245825749875153</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -4037,16 +4037,16 @@
         <v>1</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K18">
-        <v>0.002555349410803385</v>
+        <v>0.00266897541348256</v>
       </c>
       <c r="L18">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M18">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -4058,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -4066,7 +4066,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.007094601990616324</v>
+        <v>0.007245825749875153</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -4087,16 +4087,16 @@
         <v>3</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K19">
-        <v>0.002436430065651794</v>
+        <v>0.002612780163835795</v>
       </c>
       <c r="L19">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M19">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -4108,7 +4108,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>127</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -4116,7 +4116,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.007094601990616324</v>
+        <v>0.007245825749875153</v>
       </c>
       <c r="C20">
         <v>6</v>
@@ -4137,16 +4137,16 @@
         <v>6</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K20">
-        <v>0.002436430065651794</v>
+        <v>0.002555349410803385</v>
       </c>
       <c r="L20">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M20">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -4158,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>307</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -4166,7 +4166,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.007094601990616324</v>
+        <v>0.007245825749875153</v>
       </c>
       <c r="C21">
         <v>6</v>
@@ -4187,28 +4187,28 @@
         <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>88</v>
+        <v>259</v>
       </c>
       <c r="K21">
-        <v>0.002384875320216531</v>
+        <v>0.002436430065651794</v>
       </c>
       <c r="L21">
-        <v>187</v>
+        <v>20</v>
       </c>
       <c r="M21">
-        <v>196</v>
+        <v>20</v>
       </c>
       <c r="N21">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>99</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -4216,7 +4216,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.007094601990616324</v>
+        <v>0.007245825749875153</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -4237,28 +4237,28 @@
         <v>69</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>91</v>
+        <v>260</v>
       </c>
       <c r="K22">
-        <v>0.002384347380790729</v>
+        <v>0.002436430065651794</v>
       </c>
       <c r="L22">
-        <v>127</v>
+        <v>20</v>
       </c>
       <c r="M22">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="N22">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>29</v>
+        <v>307</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -4266,7 +4266,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.007094601990616324</v>
+        <v>0.007245825749875153</v>
       </c>
       <c r="C23">
         <v>6</v>
@@ -4287,28 +4287,28 @@
         <v>14</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="K23">
-        <v>0.002374738278541744</v>
+        <v>0.002384875320216531</v>
       </c>
       <c r="L23">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="M23">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23">
-        <v>3</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -4316,7 +4316,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.006476455911302693</v>
+        <v>0.006614503684930679</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -4337,28 +4337,28 @@
         <v>8</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>262</v>
+        <v>89</v>
       </c>
       <c r="K24">
-        <v>0.002374738278541744</v>
+        <v>0.002384347380790729</v>
       </c>
       <c r="L24">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="M24">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -4366,7 +4366,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.006476455911302693</v>
+        <v>0.006614503684930679</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -4387,28 +4387,28 @@
         <v>5</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>93</v>
+        <v>261</v>
       </c>
       <c r="K25">
-        <v>0.002311847397625024</v>
+        <v>0.002374738278541744</v>
       </c>
       <c r="L25">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="M25">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="N25">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -4416,7 +4416,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.005792718268381268</v>
+        <v>0.005916191950771139</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -4437,16 +4437,16 @@
         <v>17</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K26">
-        <v>0.002311400510151974</v>
+        <v>0.002374738278541744</v>
       </c>
       <c r="L26">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M26">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -4458,7 +4458,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -4466,7 +4466,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.005792718268381268</v>
+        <v>0.005916191950771139</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -4487,28 +4487,28 @@
         <v>5</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>264</v>
+        <v>91</v>
       </c>
       <c r="K27">
-        <v>0.002311400510151974</v>
+        <v>0.002311847397625024</v>
       </c>
       <c r="L27">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="M27">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27">
-        <v>632</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -4516,7 +4516,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.005792718268381268</v>
+        <v>0.005916191950771139</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -4537,7 +4537,7 @@
         <v>4</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K28">
         <v>0.002311400510151974</v>
@@ -4558,7 +4558,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -4566,7 +4566,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.005792718268381268</v>
+        <v>0.005916191950771139</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -4587,7 +4587,7 @@
         <v>4</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K29">
         <v>0.002311400510151974</v>
@@ -4608,7 +4608,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>73</v>
+        <v>632</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -4616,7 +4616,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.005792718268381268</v>
+        <v>0.005916191950771139</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -4637,7 +4637,7 @@
         <v>3</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K30">
         <v>0.002311400510151974</v>
@@ -4658,7 +4658,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>141</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -4666,7 +4666,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.005016641177384382</v>
+        <v>0.005123572523032822</v>
       </c>
       <c r="C31">
         <v>3</v>
@@ -4687,16 +4687,16 @@
         <v>27</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K31">
-        <v>0.002246277530736174</v>
+        <v>0.002311400510151974</v>
       </c>
       <c r="L31">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M31">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -4708,7 +4708,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -4716,7 +4716,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.005016641177384382</v>
+        <v>0.005123572523032822</v>
       </c>
       <c r="C32">
         <v>3</v>
@@ -4737,16 +4737,16 @@
         <v>21</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K32">
-        <v>0.002246277530736174</v>
+        <v>0.002311400510151974</v>
       </c>
       <c r="L32">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M32">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -4758,7 +4758,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>61</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -4766,7 +4766,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.005016641177384382</v>
+        <v>0.005123572523032822</v>
       </c>
       <c r="C33">
         <v>3</v>
@@ -4787,7 +4787,7 @@
         <v>3</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K33">
         <v>0.002246277530736174</v>
@@ -4808,7 +4808,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -4816,7 +4816,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.005016641177384382</v>
+        <v>0.005123572523032822</v>
       </c>
       <c r="C34">
         <v>3</v>
@@ -4837,16 +4837,16 @@
         <v>3</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K34">
-        <v>0.002179209299688675</v>
+        <v>0.002246277530736174</v>
       </c>
       <c r="L34">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M34">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -4858,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -4866,7 +4866,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.005016641177384382</v>
+        <v>0.005123572523032822</v>
       </c>
       <c r="C35">
         <v>3</v>
@@ -4887,28 +4887,28 @@
         <v>74</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>56</v>
+        <v>270</v>
       </c>
       <c r="K35">
-        <v>0.002158017511791727</v>
+        <v>0.002246277530736174</v>
       </c>
       <c r="L35">
-        <v>214</v>
+        <v>17</v>
       </c>
       <c r="M35">
-        <v>228</v>
+        <v>17</v>
       </c>
       <c r="N35">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>112</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -4916,7 +4916,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.005016641177384382</v>
+        <v>0.005123572523032822</v>
       </c>
       <c r="C36">
         <v>3</v>
@@ -4937,16 +4937,16 @@
         <v>4</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K36">
-        <v>0.002110010331398641</v>
+        <v>0.002179209299688675</v>
       </c>
       <c r="L36">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M36">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -4958,7 +4958,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -4966,7 +4966,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.005016641177384382</v>
+        <v>0.005123572523032822</v>
       </c>
       <c r="C37">
         <v>3</v>
@@ -4987,7 +4987,7 @@
         <v>12</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K37">
         <v>0.002110010331398641</v>
@@ -5008,7 +5008,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -5016,7 +5016,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.00409607036907559</v>
+        <v>0.004183379447191543</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -5037,7 +5037,7 @@
         <v>10</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K38">
         <v>0.002110010331398641</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -5066,7 +5066,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.00409607036907559</v>
+        <v>0.004183379447191543</v>
       </c>
       <c r="C39">
         <v>2</v>
@@ -5087,7 +5087,7 @@
         <v>49</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K39">
         <v>0.002110010331398641</v>
@@ -5108,7 +5108,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>334</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -5116,7 +5116,7 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.00409607036907559</v>
+        <v>0.004183379447191543</v>
       </c>
       <c r="C40">
         <v>2</v>
@@ -5137,7 +5137,7 @@
         <v>13</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K40">
         <v>0.002110010331398641</v>
@@ -5158,7 +5158,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>45</v>
+        <v>334</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -5166,7 +5166,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.00409607036907559</v>
+        <v>0.004183379447191543</v>
       </c>
       <c r="C41">
         <v>2</v>
@@ -5187,7 +5187,7 @@
         <v>53</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K41">
         <v>0.002110010331398641</v>
@@ -5208,7 +5208,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -5216,7 +5216,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.00409607036907559</v>
+        <v>0.004183379447191543</v>
       </c>
       <c r="C42">
         <v>2</v>
@@ -5237,7 +5237,7 @@
         <v>36</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K42">
         <v>0.002110010331398641</v>
@@ -5258,7 +5258,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -5266,7 +5266,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.00409607036907559</v>
+        <v>0.004183379447191543</v>
       </c>
       <c r="C43">
         <v>2</v>
@@ -5287,28 +5287,28 @@
         <v>4</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>95</v>
+        <v>278</v>
       </c>
       <c r="K43">
-        <v>0.002099374600111663</v>
+        <v>0.002110010331398641</v>
       </c>
       <c r="L43">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="M43">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="N43">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -5316,7 +5316,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.00409607036907559</v>
+        <v>0.004183379447191543</v>
       </c>
       <c r="C44">
         <v>2</v>
@@ -5337,28 +5337,28 @@
         <v>6</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>279</v>
+        <v>93</v>
       </c>
       <c r="K44">
-        <v>0.002038463643376649</v>
+        <v>0.002099374600111663</v>
       </c>
       <c r="L44">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="M44">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -5366,7 +5366,7 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.00409607036907559</v>
+        <v>0.004183379447191543</v>
       </c>
       <c r="C45">
         <v>2</v>
@@ -5387,7 +5387,7 @@
         <v>14</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K45">
         <v>0.002038463643376649</v>
@@ -5408,7 +5408,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>102</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -5416,7 +5416,7 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.00409607036907559</v>
+        <v>0.004183379447191543</v>
       </c>
       <c r="C46">
         <v>2</v>
@@ -5437,7 +5437,7 @@
         <v>24</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K46">
         <v>0.002038463643376649</v>
@@ -5458,7 +5458,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>1</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -5466,7 +5466,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.00409607036907559</v>
+        <v>0.004183379447191543</v>
       </c>
       <c r="C47">
         <v>2</v>
@@ -5487,16 +5487,16 @@
         <v>34</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K47">
-        <v>0.001964312717498872</v>
+        <v>0.002038463643376649</v>
       </c>
       <c r="L47">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M47">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -5508,7 +5508,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -5516,7 +5516,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.00409607036907559</v>
+        <v>0.004183379447191543</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -5537,7 +5537,7 @@
         <v>11</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K48">
         <v>0.001964312717498872</v>
@@ -5558,7 +5558,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -5566,7 +5566,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.00409607036907559</v>
+        <v>0.004183379447191543</v>
       </c>
       <c r="C49">
         <v>2</v>
@@ -5587,7 +5587,7 @@
         <v>4</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K49">
         <v>0.001964312717498872</v>
@@ -5608,7 +5608,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>224</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -5616,7 +5616,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.00409607036907559</v>
+        <v>0.004183379447191543</v>
       </c>
       <c r="C50">
         <v>2</v>
@@ -5637,7 +5637,7 @@
         <v>6</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K50">
         <v>0.001964312717498872</v>
@@ -5658,7 +5658,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>19</v>
+        <v>224</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -5666,28 +5666,28 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.002934442166990786</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C51">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D51">
-        <v>228</v>
+        <v>1</v>
       </c>
       <c r="E51">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K51">
         <v>0.001964312717498872</v>
@@ -5708,7 +5708,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -5716,7 +5716,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -5734,31 +5734,31 @@
         <v>0</v>
       </c>
       <c r="H52">
+        <v>24</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="K52">
+        <v>0.001964312717498872</v>
+      </c>
+      <c r="L52">
         <v>13</v>
       </c>
-      <c r="J52" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K52">
-        <v>0.00194374996584273</v>
-      </c>
-      <c r="L52">
-        <v>56</v>
-      </c>
       <c r="M52">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="N52">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -5766,7 +5766,7 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -5784,31 +5784,31 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>287</v>
+        <v>101</v>
       </c>
       <c r="K53">
-        <v>0.001887250613693688</v>
+        <v>0.00194374996584273</v>
       </c>
       <c r="L53">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="M53">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -5816,7 +5816,7 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -5834,10 +5834,10 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K54">
         <v>0.001887250613693688</v>
@@ -5866,7 +5866,7 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -5884,10 +5884,10 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K55">
         <v>0.001887250613693688</v>
@@ -5908,7 +5908,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -5916,7 +5916,7 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -5934,10 +5934,10 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K56">
         <v>0.001887250613693688</v>
@@ -5958,7 +5958,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -5966,7 +5966,7 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -5984,10 +5984,10 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K57">
         <v>0.001887250613693688</v>
@@ -6008,7 +6008,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -6016,7 +6016,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -6034,10 +6034,10 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K58">
         <v>0.001887250613693688</v>
@@ -6058,7 +6058,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -6066,7 +6066,7 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -6084,10 +6084,10 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K59">
         <v>0.001887250613693688</v>
@@ -6108,7 +6108,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>255</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -6116,7 +6116,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -6137,28 +6137,28 @@
         <v>5</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>89</v>
+        <v>293</v>
       </c>
       <c r="K60">
-        <v>0.001873546301548125</v>
+        <v>0.001887250613693688</v>
       </c>
       <c r="L60">
-        <v>173</v>
+        <v>12</v>
       </c>
       <c r="M60">
-        <v>185</v>
+        <v>12</v>
       </c>
       <c r="N60">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>54</v>
+        <v>255</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -6166,7 +6166,7 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -6184,7 +6184,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>294</v>
@@ -6216,7 +6216,7 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -6234,7 +6234,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>38</v>
+        <v>165</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>295</v>
@@ -6266,7 +6266,7 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -6284,7 +6284,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>165</v>
+        <v>32</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>296</v>
@@ -6316,7 +6316,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -6334,7 +6334,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>297</v>
@@ -6366,7 +6366,7 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -6384,10 +6384,10 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K65">
         <v>0.001793704869473471</v>
@@ -6416,7 +6416,7 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -6434,10 +6434,10 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K66">
         <v>0.001735242751421961</v>
@@ -6466,7 +6466,7 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -6484,7 +6484,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>298</v>
@@ -6516,7 +6516,7 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -6534,7 +6534,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>299</v>
@@ -6566,7 +6566,7 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>300</v>
@@ -6616,7 +6616,7 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -6634,7 +6634,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>301</v>
@@ -6666,7 +6666,7 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -6684,7 +6684,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>302</v>
@@ -6716,7 +6716,7 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -6734,7 +6734,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>303</v>
@@ -6766,7 +6766,7 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -6784,7 +6784,7 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>304</v>
@@ -6816,7 +6816,7 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -6834,7 +6834,7 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>305</v>
@@ -6866,7 +6866,7 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -6884,7 +6884,7 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>306</v>
@@ -6916,7 +6916,7 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -6934,7 +6934,7 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>307</v>
@@ -6966,7 +6966,7 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -6984,7 +6984,7 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>308</v>
@@ -7016,7 +7016,7 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -7034,10 +7034,10 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K78">
         <v>0.001710853474237236</v>
@@ -7066,7 +7066,7 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -7084,10 +7084,10 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K79">
         <v>0.001710853474237236</v>
@@ -7116,7 +7116,7 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -7134,10 +7134,10 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K80">
         <v>0.001664621226776612</v>
@@ -7166,7 +7166,7 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -7184,10 +7184,10 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K81">
         <v>0.001650571005952256</v>
@@ -7216,25 +7216,25 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.002896359134190634</v>
+        <v>0.002840792018524497</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>196</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82">
-        <v>6</v>
+        <v>99</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>309</v>
@@ -7266,25 +7266,25 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.00278150336556163</v>
+        <v>0.0024359525036859</v>
       </c>
       <c r="C83">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D83">
-        <v>196</v>
+        <v>237</v>
       </c>
       <c r="E83">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="F83">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G83" t="b">
         <v>1</v>
       </c>
       <c r="H83">
-        <v>99</v>
+        <v>146</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>310</v>
@@ -7316,25 +7316,25 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.002623284908877202</v>
+        <v>0.00229758174781264</v>
       </c>
       <c r="C84">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D84">
-        <v>185</v>
+        <v>131</v>
       </c>
       <c r="E84">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F84">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G84" t="b">
         <v>1</v>
       </c>
       <c r="H84">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>311</v>
@@ -7366,25 +7366,25 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.002385113040014049</v>
+        <v>0.002220285189963612</v>
       </c>
       <c r="C85">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D85">
-        <v>237</v>
+        <v>123</v>
       </c>
       <c r="E85">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F85">
-        <v>0.01000000000000001</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G85" t="b">
         <v>1</v>
       </c>
       <c r="H85">
-        <v>146</v>
+        <v>295</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>312</v>
@@ -7416,13 +7416,13 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.002249630146283348</v>
+        <v>0.002092094132061927</v>
       </c>
       <c r="C86">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="E86">
         <v>0.97</v>
@@ -7434,7 +7434,7 @@
         <v>1</v>
       </c>
       <c r="H86">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>313</v>
@@ -7466,25 +7466,25 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.002173946803609402</v>
+        <v>0.002016612530338477</v>
       </c>
       <c r="C87">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D87">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E87">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="F87">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G87" t="b">
         <v>1</v>
       </c>
       <c r="H87">
-        <v>295</v>
+        <v>24</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>314</v>
@@ -7516,13 +7516,13 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.002048431152810847</v>
+        <v>0.002004647455173002</v>
       </c>
       <c r="C88">
         <v>3</v>
       </c>
       <c r="D88">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="E88">
         <v>0.97</v>
@@ -7534,7 +7534,7 @@
         <v>1</v>
       </c>
       <c r="H88">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>315</v>
@@ -7566,25 +7566,25 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.001974524887282542</v>
+        <v>0.001836033618124808</v>
       </c>
       <c r="C89">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="E89">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="F89">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
       </c>
       <c r="H89">
-        <v>24</v>
+        <v>2061</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>316</v>
@@ -7616,25 +7616,25 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.001962809528810347</v>
+        <v>0.001745727801377011</v>
       </c>
       <c r="C90">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D90">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="E90">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="F90">
-        <v>0.03000000000000003</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G90" t="b">
         <v>1</v>
       </c>
       <c r="H90">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>317</v>
@@ -7666,25 +7666,25 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.001797714741099203</v>
+        <v>0.001710550150650797</v>
       </c>
       <c r="C91">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D91">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="E91">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="F91">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G91" t="b">
         <v>1</v>
       </c>
       <c r="H91">
-        <v>2061</v>
+        <v>13</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>318</v>
@@ -7716,28 +7716,28 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.001709293648820772</v>
+        <v>0.001689039920678141</v>
       </c>
       <c r="C92">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D92">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="E92">
-        <v>0.92</v>
+        <v>0.99</v>
       </c>
       <c r="F92">
-        <v>0.07999999999999996</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G92" t="b">
         <v>1</v>
       </c>
       <c r="H92">
-        <v>20</v>
+        <v>2998</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K92">
         <v>0.001558447411627941</v>
@@ -7766,25 +7766,25 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.00167485017205462</v>
+        <v>0.001670262908880965</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D93">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="E93">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="F93">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
       </c>
       <c r="H93">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>319</v>
@@ -7816,25 +7816,25 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.001653788870603195</v>
+        <v>0.001630226767731463</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D94">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="E94">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F94">
-        <v>0.01000000000000001</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G94" t="b">
         <v>1</v>
       </c>
       <c r="H94">
-        <v>2998</v>
+        <v>27</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>320</v>
@@ -7866,25 +7866,25 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.00163540374379051</v>
+        <v>0.001490532427576762</v>
       </c>
       <c r="C95">
         <v>2</v>
       </c>
       <c r="D95">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="E95">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F95">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G95" t="b">
         <v>1</v>
       </c>
       <c r="H95">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>321</v>
@@ -7916,25 +7916,25 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.001596203175559795</v>
+        <v>0.00141032658831012</v>
       </c>
       <c r="C96">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D96">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E96">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="F96">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G96" t="b">
         <v>1</v>
       </c>
       <c r="H96">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>322</v>
@@ -7966,25 +7966,25 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.001459424321368269</v>
+        <v>0.001356603397952552</v>
       </c>
       <c r="C97">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E97">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="F97">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G97" t="b">
         <v>1</v>
       </c>
       <c r="H97">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>323</v>
@@ -8016,25 +8016,25 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.001380892415335341</v>
+        <v>0.00134634772703408</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D98">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="E98">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="F98">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G98" t="b">
         <v>1</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>3157</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>324</v>
@@ -8066,25 +8066,25 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.001328290452990383</v>
+        <v>0.001340804644569848</v>
       </c>
       <c r="C99">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D99">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E99">
-        <v>0.92</v>
+        <v>0.98</v>
       </c>
       <c r="F99">
-        <v>0.07999999999999996</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G99" t="b">
         <v>1</v>
       </c>
       <c r="H99">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>325</v>
@@ -8116,25 +8116,25 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.001318248822702136</v>
+        <v>0.001340804644569848</v>
       </c>
       <c r="C100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D100">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E100">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F100">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G100" t="b">
         <v>1</v>
       </c>
       <c r="H100">
-        <v>3157</v>
+        <v>845</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>326</v>
@@ -8166,13 +8166,13 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.001312821426951477</v>
+        <v>0.001321382663188515</v>
       </c>
       <c r="C101">
         <v>1</v>
       </c>
       <c r="D101">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E101">
         <v>0.98</v>
@@ -8184,7 +8184,7 @@
         <v>1</v>
       </c>
       <c r="H101">
-        <v>9</v>
+        <v>168</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>327</v>
@@ -8216,13 +8216,13 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.001312821426951477</v>
+        <v>0.001290420436897529</v>
       </c>
       <c r="C102">
         <v>1</v>
       </c>
       <c r="D102">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E102">
         <v>0.98</v>
@@ -8234,7 +8234,7 @@
         <v>1</v>
       </c>
       <c r="H102">
-        <v>845</v>
+        <v>2</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>328</v>
@@ -8266,13 +8266,13 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.001293804791370351</v>
+        <v>0.001279566570155956</v>
       </c>
       <c r="C103">
         <v>1</v>
       </c>
       <c r="D103">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E103">
         <v>0.98</v>
@@ -8284,7 +8284,7 @@
         <v>1</v>
       </c>
       <c r="H103">
-        <v>168</v>
+        <v>116</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>329</v>
@@ -8316,25 +8316,25 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.001263488761167481</v>
+        <v>0.001245221326170582</v>
       </c>
       <c r="C104">
         <v>1</v>
       </c>
       <c r="D104">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E104">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F104">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G104" t="b">
         <v>1</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>861</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>330</v>
@@ -8366,25 +8366,25 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.001252861419681664</v>
+        <v>0.001245221326170582</v>
       </c>
       <c r="C105">
         <v>1</v>
       </c>
       <c r="D105">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E105">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F105">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G105" t="b">
         <v>1</v>
       </c>
       <c r="H105">
-        <v>116</v>
+        <v>25</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>331</v>
@@ -8416,25 +8416,25 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.001219232976939851</v>
+        <v>0.001163280292689605</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D106">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E106">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F106">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G106" t="b">
         <v>1</v>
       </c>
       <c r="H106">
-        <v>861</v>
+        <v>63</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>332</v>
@@ -8466,25 +8466,25 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.001219232976939851</v>
+        <v>0.001163280292689605</v>
       </c>
       <c r="C107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D107">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E107">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F107">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G107" t="b">
         <v>1</v>
       </c>
       <c r="H107">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>333</v>
@@ -8516,13 +8516,13 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.001139002091004274</v>
+        <v>0.001142050803238823</v>
       </c>
       <c r="C108">
         <v>2</v>
       </c>
       <c r="D108">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E108">
         <v>0.9399999999999999</v>
@@ -8534,7 +8534,7 @@
         <v>1</v>
       </c>
       <c r="H108">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>334</v>
@@ -8566,25 +8566,25 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.001139002091004274</v>
+        <v>0.001121973361091499</v>
       </c>
       <c r="C109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D109">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E109">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F109">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G109" t="b">
         <v>1</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>335</v>
@@ -8616,28 +8616,28 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.001118215670889233</v>
+        <v>0.001105899210542623</v>
       </c>
       <c r="C110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D110">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E110">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F110">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G110" t="b">
         <v>1</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K110">
         <v>0.001527264377043949</v>
@@ -8666,25 +8666,25 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.001098557254313683</v>
+        <v>0.001074319876685676</v>
       </c>
       <c r="C111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D111">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E111">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="F111">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G111" t="b">
         <v>1</v>
       </c>
       <c r="H111">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>336</v>
@@ -8716,25 +8716,25 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.001082818578775773</v>
+        <v>0.001073509901972368</v>
       </c>
       <c r="C112">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D112">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E112">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="F112">
-        <v>0.03000000000000003</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G112" t="b">
         <v>1</v>
       </c>
       <c r="H112">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>337</v>
@@ -8766,25 +8766,25 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.001051898320329358</v>
+        <v>0.001035267265997192</v>
       </c>
       <c r="C113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D113">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E113">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F113">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G113" t="b">
         <v>1</v>
       </c>
       <c r="H113">
-        <v>13</v>
+        <v>841</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>338</v>
@@ -8816,25 +8816,25 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.001051105250165686</v>
+        <v>0.001035267265997192</v>
       </c>
       <c r="C114">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D114">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E114">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="F114">
-        <v>0.08999999999999997</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G114" t="b">
         <v>1</v>
       </c>
       <c r="H114">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>339</v>
@@ -8866,13 +8866,13 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.001013660755820708</v>
+        <v>0.001015787956220147</v>
       </c>
       <c r="C115">
         <v>1</v>
       </c>
       <c r="D115">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E115">
         <v>0.96</v>
@@ -8884,7 +8884,7 @@
         <v>1</v>
       </c>
       <c r="H115">
-        <v>841</v>
+        <v>108</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>340</v>
@@ -8916,13 +8916,13 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.001013660755820708</v>
+        <v>0.0009742331729343917</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E116">
         <v>0.96</v>
@@ -8934,7 +8934,7 @@
         <v>1</v>
       </c>
       <c r="H116">
-        <v>137</v>
+        <v>50</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>341</v>
@@ -8966,13 +8966,13 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.0009945879883141982</v>
+        <v>0.0009742331729343917</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
       <c r="D117">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E117">
         <v>0.96</v>
@@ -8984,7 +8984,7 @@
         <v>1</v>
       </c>
       <c r="H117">
-        <v>108</v>
+        <v>1138</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>342</v>
@@ -9016,7 +9016,7 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.0009539004727161546</v>
+        <v>0.0009742331729343917</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -9034,7 +9034,7 @@
         <v>1</v>
       </c>
       <c r="H118">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>343</v>
@@ -9066,25 +9066,25 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.0009539004727161546</v>
+        <v>0.0009453050956641233</v>
       </c>
       <c r="C119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D119">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E119">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="F119">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G119" t="b">
         <v>1</v>
       </c>
       <c r="H119">
-        <v>1138</v>
+        <v>3</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>344</v>
@@ -9116,25 +9116,25 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.0009539004727161546</v>
+        <v>0.0009287142409383879</v>
       </c>
       <c r="C120">
         <v>1</v>
       </c>
       <c r="D120">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E120">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F120">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G120" t="b">
         <v>1</v>
       </c>
       <c r="H120">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>345</v>
@@ -9166,25 +9166,25 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.0009255761378962223</v>
+        <v>0.0008867339762159587</v>
       </c>
       <c r="C121">
         <v>2</v>
       </c>
       <c r="D121">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E121">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F121">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G121" t="b">
         <v>1</v>
       </c>
       <c r="H121">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>346</v>
@@ -9216,25 +9216,25 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.0009093315420383582</v>
+        <v>0.0008513059006755851</v>
       </c>
       <c r="C122">
         <v>1</v>
       </c>
       <c r="D122">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E122">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F122">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G122" t="b">
         <v>1</v>
       </c>
       <c r="H122">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>347</v>
@@ -9266,25 +9266,25 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.0008682274249994576</v>
+        <v>0.0008513059006755851</v>
       </c>
       <c r="C123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D123">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E123">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F123">
-        <v>0.08999999999999997</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G123" t="b">
         <v>1</v>
       </c>
       <c r="H123">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>348</v>
@@ -9316,7 +9316,7 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.0008335387499016925</v>
+        <v>0.0008513059006755851</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -9334,7 +9334,7 @@
         <v>1</v>
       </c>
       <c r="H124">
-        <v>39</v>
+        <v>549</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>349</v>
@@ -9366,7 +9366,7 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.0008335387499016925</v>
+        <v>0.0008513059006755851</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -9384,7 +9384,7 @@
         <v>1</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>350</v>
@@ -9416,25 +9416,25 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.0008335387499016925</v>
+        <v>0.0008232860392967336</v>
       </c>
       <c r="C126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D126">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E126">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F126">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G126" t="b">
         <v>1</v>
       </c>
       <c r="H126">
-        <v>549</v>
+        <v>13</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>351</v>
@@ -9466,13 +9466,13 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.0008335387499016925</v>
+        <v>0.0008225633833814915</v>
       </c>
       <c r="C127">
         <v>1</v>
       </c>
       <c r="D127">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E127">
         <v>0.9399999999999999</v>
@@ -9484,7 +9484,7 @@
         <v>1</v>
       </c>
       <c r="H127">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>352</v>
@@ -9516,25 +9516,25 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.000806103676084382</v>
+        <v>0.0008225633833814915</v>
       </c>
       <c r="C128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D128">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E128">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F128">
-        <v>0.09999999999999998</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G128" t="b">
         <v>1</v>
       </c>
       <c r="H128">
-        <v>13</v>
+        <v>399</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>353</v>
@@ -9566,7 +9566,7 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.0008053961023347794</v>
+        <v>0.0008225633833814915</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -9584,7 +9584,7 @@
         <v>1</v>
       </c>
       <c r="H129">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>354</v>
@@ -9616,13 +9616,13 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.0008053961023347794</v>
+        <v>0.0007920818104129595</v>
       </c>
       <c r="C130">
         <v>1</v>
       </c>
       <c r="D130">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E130">
         <v>0.9399999999999999</v>
@@ -9634,7 +9634,7 @@
         <v>1</v>
       </c>
       <c r="H130">
-        <v>399</v>
+        <v>0</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>355</v>
@@ -9666,13 +9666,13 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.0008053961023347794</v>
+        <v>0.0007920818104129595</v>
       </c>
       <c r="C131">
         <v>1</v>
       </c>
       <c r="D131">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E131">
         <v>0.9399999999999999</v>
@@ -9684,7 +9684,7 @@
         <v>1</v>
       </c>
       <c r="H131">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>356</v>
@@ -9716,25 +9716,25 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.0007755506939955864</v>
+        <v>0.000759658869967937</v>
       </c>
       <c r="C132">
         <v>1</v>
       </c>
       <c r="D132">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E132">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F132">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G132" t="b">
         <v>1</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>357</v>
@@ -9766,25 +9766,25 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.0007755506939955864</v>
+        <v>0.000759658869967937</v>
       </c>
       <c r="C133">
         <v>1</v>
       </c>
       <c r="D133">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E133">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F133">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G133" t="b">
         <v>1</v>
       </c>
       <c r="H133">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>358</v>
@@ -9816,13 +9816,13 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.0007438044354236279</v>
+        <v>0.0007250562772662994</v>
       </c>
       <c r="C134">
         <v>1</v>
       </c>
       <c r="D134">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E134">
         <v>0.93</v>
@@ -9834,10 +9834,10 @@
         <v>1</v>
       </c>
       <c r="H134">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K134">
         <v>0.001432206185880128</v>
@@ -9866,13 +9866,13 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.0007438044354236279</v>
+        <v>0.0007250562772662994</v>
       </c>
       <c r="C135">
         <v>1</v>
       </c>
       <c r="D135">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E135">
         <v>0.93</v>
@@ -9884,10 +9884,10 @@
         <v>1</v>
       </c>
       <c r="H135">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K135">
         <v>0.001432206185880128</v>
@@ -9916,7 +9916,7 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.0007099240149531585</v>
+        <v>0.0007250562772662994</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -9934,10 +9934,10 @@
         <v>1</v>
       </c>
       <c r="H136">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K136">
         <v>0.001399763918283381</v>
@@ -9966,25 +9966,25 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.0007099240149531585</v>
+        <v>0.000687991076588491</v>
       </c>
       <c r="C137">
         <v>1</v>
       </c>
       <c r="D137">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E137">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F137">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G137" t="b">
         <v>1</v>
       </c>
       <c r="H137">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>359</v>
@@ -10016,25 +10016,25 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.0007099240149531585</v>
+        <v>0.000687991076588491</v>
       </c>
       <c r="C138">
         <v>1</v>
       </c>
       <c r="D138">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E138">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F138">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G138" t="b">
         <v>1</v>
       </c>
       <c r="H138">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>360</v>
@@ -10066,7 +10066,7 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.0006736323822823198</v>
+        <v>0.000687991076588491</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -10084,7 +10084,7 @@
         <v>1</v>
       </c>
       <c r="H139">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>361</v>
@@ -10116,7 +10116,7 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.0006736323822823198</v>
+        <v>0.000687991076588491</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -10134,7 +10134,7 @@
         <v>1</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>362</v>
@@ -10166,25 +10166,25 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.0006736323822823198</v>
+        <v>0.0006784450210613166</v>
       </c>
       <c r="C141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D141">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E141">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="F141">
-        <v>0.07999999999999996</v>
+        <v>0.12</v>
       </c>
       <c r="G141" t="b">
         <v>1</v>
       </c>
       <c r="H141">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>363</v>
@@ -10216,13 +10216,13 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.0006736323822823198</v>
+        <v>0.0006481243320077189</v>
       </c>
       <c r="C142">
         <v>1</v>
       </c>
       <c r="D142">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E142">
         <v>0.92</v>
@@ -10234,7 +10234,7 @@
         <v>1</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>364</v>
@@ -10266,25 +10266,25 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.0006642855573815425</v>
+        <v>0.0006481243320077189</v>
       </c>
       <c r="C143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D143">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E143">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="F143">
-        <v>0.12</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G143" t="b">
         <v>1</v>
       </c>
       <c r="H143">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>365</v>
@@ -10316,7 +10316,7 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.0006345976752350228</v>
+        <v>0.0006481243320077189</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -10334,7 +10334,7 @@
         <v>1</v>
       </c>
       <c r="H144">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>366</v>
@@ -10366,25 +10366,25 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.0006345976752350228</v>
+        <v>0.0006377309726217988</v>
       </c>
       <c r="C145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D145">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E145">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="F145">
-        <v>0.07999999999999996</v>
+        <v>0.12</v>
       </c>
       <c r="G145" t="b">
         <v>1</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>367</v>
@@ -10416,19 +10416,19 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.0006345976752350228</v>
+        <v>0.0006050463527430801</v>
       </c>
       <c r="C146">
         <v>1</v>
       </c>
       <c r="D146">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E146">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F146">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G146" t="b">
         <v>1</v>
@@ -10466,25 +10466,25 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.0006244212301017942</v>
+        <v>0.0005582574205046556</v>
       </c>
       <c r="C147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D147">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E147">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="F147">
-        <v>0.12</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G147" t="b">
         <v>1</v>
       </c>
       <c r="H147">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>369</v>
@@ -10516,25 +10516,25 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.0005924187534678384</v>
+        <v>0.0005497404732406181</v>
       </c>
       <c r="C148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D148">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E148">
-        <v>0.91</v>
+        <v>0.86</v>
       </c>
       <c r="F148">
-        <v>0.08999999999999997</v>
+        <v>0.14</v>
       </c>
       <c r="G148" t="b">
         <v>1</v>
       </c>
       <c r="H148">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>370</v>
@@ -10566,25 +10566,25 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.0005466063280443786</v>
+        <v>0.0005497404732406181</v>
       </c>
       <c r="C149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D149">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E149">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="F149">
-        <v>0.09999999999999998</v>
+        <v>0.14</v>
       </c>
       <c r="G149" t="b">
         <v>1</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>371</v>
@@ -10616,25 +10616,25 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.0005382671334378211</v>
+        <v>0.0005071430501245662</v>
       </c>
       <c r="C150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D150">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E150">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="F150">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="G150" t="b">
         <v>1</v>
       </c>
       <c r="H150">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>372</v>
@@ -10666,25 +10666,25 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.0005382671334378211</v>
+        <v>0.0005071430501245662</v>
       </c>
       <c r="C151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D151">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E151">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="F151">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="G151" t="b">
         <v>1</v>
       </c>
       <c r="H151">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>373</v>
@@ -10716,7 +10716,7 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.0004965587383885095</v>
+        <v>0.0005071430501245662</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -10734,7 +10734,7 @@
         <v>1</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>374</v>
@@ -10766,7 +10766,7 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.0004965587383885095</v>
+        <v>0.0005071430501245662</v>
       </c>
       <c r="C153">
         <v>1</v>
@@ -10784,7 +10784,7 @@
         <v>1</v>
       </c>
       <c r="H153">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>375</v>
@@ -10816,7 +10816,7 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.0004965587383885095</v>
+        <v>0.0005071430501245662</v>
       </c>
       <c r="C154">
         <v>1</v>
@@ -10834,7 +10834,7 @@
         <v>1</v>
       </c>
       <c r="H154">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>376</v>
@@ -10866,7 +10866,7 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.0004965587383885095</v>
+        <v>0.0005071430501245662</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -10884,7 +10884,7 @@
         <v>1</v>
       </c>
       <c r="H155">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>377</v>
@@ -10916,7 +10916,7 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.0004965587383885095</v>
+        <v>0.0005071430501245662</v>
       </c>
       <c r="C156">
         <v>1</v>
@@ -10934,7 +10934,7 @@
         <v>1</v>
       </c>
       <c r="H156">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>378</v>
@@ -10966,7 +10966,7 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.0004965587383885095</v>
+        <v>0.0005071430501245662</v>
       </c>
       <c r="C157">
         <v>1</v>
@@ -10984,7 +10984,7 @@
         <v>1</v>
       </c>
       <c r="H157">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>379</v>
@@ -11016,7 +11016,7 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.0004965587383885095</v>
+        <v>0.0005071430501245662</v>
       </c>
       <c r="C158">
         <v>1</v>
@@ -11034,7 +11034,7 @@
         <v>1</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>380</v>
@@ -11066,7 +11066,7 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.0004965587383885095</v>
+        <v>0.0005071430501245662</v>
       </c>
       <c r="C159">
         <v>1</v>
@@ -11084,7 +11084,7 @@
         <v>1</v>
       </c>
       <c r="H159">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>381</v>
@@ -11116,7 +11116,7 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.0004965587383885095</v>
+        <v>0.0005071430501245662</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -11134,7 +11134,7 @@
         <v>1</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>382</v>
@@ -11166,7 +11166,7 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.0004965587383885095</v>
+        <v>0.0005071430501245662</v>
       </c>
       <c r="C161">
         <v>1</v>
@@ -11184,7 +11184,7 @@
         <v>1</v>
       </c>
       <c r="H161">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>383</v>
@@ -11216,25 +11216,25 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.0004965587383885095</v>
+        <v>0.0005020672116090645</v>
       </c>
       <c r="C162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D162">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E162">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="F162">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
       </c>
       <c r="H162">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>384</v>
@@ -11266,25 +11266,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.0004965587383885095</v>
+        <v>0.0004509438953135664</v>
       </c>
       <c r="C163">
         <v>1</v>
       </c>
       <c r="D163">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E163">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="F163">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>385</v>
@@ -11316,25 +11316,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.0004915888349876795</v>
+        <v>0.0004509438953135664</v>
       </c>
       <c r="C164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D164">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E164">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="F164">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
       </c>
       <c r="H164">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>386</v>
@@ -11366,7 +11366,7 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.0004415324861218242</v>
+        <v>0.0004509438953135664</v>
       </c>
       <c r="C165">
         <v>1</v>
@@ -11384,7 +11384,7 @@
         <v>1</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>387</v>
@@ -11416,7 +11416,7 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.0004415324861218242</v>
+        <v>0.0004509438953135664</v>
       </c>
       <c r="C166">
         <v>1</v>
@@ -11466,7 +11466,7 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.0004415324861218242</v>
+        <v>0.0004509438953135664</v>
       </c>
       <c r="C167">
         <v>1</v>
@@ -11484,7 +11484,7 @@
         <v>1</v>
       </c>
       <c r="H167">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>389</v>
@@ -11516,7 +11516,7 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.0004415324861218242</v>
+        <v>0.0004509438953135664</v>
       </c>
       <c r="C168">
         <v>1</v>
@@ -11534,7 +11534,7 @@
         <v>1</v>
       </c>
       <c r="H168">
-        <v>4</v>
+        <v>207</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>390</v>
@@ -11566,7 +11566,7 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.0004415324861218242</v>
+        <v>0.0004509438953135664</v>
       </c>
       <c r="C169">
         <v>1</v>
@@ -11584,7 +11584,7 @@
         <v>1</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>391</v>
@@ -11616,25 +11616,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.0004415324861218242</v>
+        <v>0.0003989342106389773</v>
       </c>
       <c r="C170">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D170">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E170">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="F170">
-        <v>0.12</v>
+        <v>0.22</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>207</v>
+        <v>13</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>392</v>
@@ -11666,25 +11666,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.0004415324861218242</v>
+        <v>0.0003982944465490138</v>
       </c>
       <c r="C171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D171">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E171">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="F171">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>119</v>
+        <v>5</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>393</v>
@@ -11716,25 +11716,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.000390608267797912</v>
+        <v>0.0003887252165211428</v>
       </c>
       <c r="C172">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D172">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E172">
-        <v>0.78</v>
+        <v>0.86</v>
       </c>
       <c r="F172">
-        <v>0.22</v>
+        <v>0.14</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>394</v>
@@ -11766,25 +11766,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.0003899818558825746</v>
+        <v>0.0003887252165211428</v>
       </c>
       <c r="C173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D173">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E173">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
       <c r="F173">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>395</v>
@@ -11816,7 +11816,7 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.0003806123401437275</v>
+        <v>0.0003887252165211428</v>
       </c>
       <c r="C174">
         <v>1</v>
@@ -11834,7 +11834,7 @@
         <v>1</v>
       </c>
       <c r="H174">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>396</v>
@@ -11866,7 +11866,7 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.0003806123401437275</v>
+        <v>0.0003887252165211428</v>
       </c>
       <c r="C175">
         <v>1</v>
@@ -11884,7 +11884,7 @@
         <v>1</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>397</v>
@@ -11916,25 +11916,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.0003806123401437275</v>
+        <v>0.000341799528566376</v>
       </c>
       <c r="C176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D176">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E176">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F176">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="G176" t="b">
         <v>1</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>398</v>
@@ -11966,25 +11966,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.0003806123401437275</v>
+        <v>0.0003193693922613471</v>
       </c>
       <c r="C177">
         <v>1</v>
       </c>
       <c r="D177">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E177">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F177">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>399</v>
@@ -12016,19 +12016,19 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.0003346660131594407</v>
+        <v>0.0003193693922613471</v>
       </c>
       <c r="C178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D178">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E178">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F178">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
@@ -12066,7 +12066,7 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.0003127040042493872</v>
+        <v>0.0003193693922613471</v>
       </c>
       <c r="C179">
         <v>1</v>
@@ -12084,7 +12084,7 @@
         <v>1</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>401</v>
@@ -12116,7 +12116,7 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.0003127040042493872</v>
+        <v>0.0003193693922613471</v>
       </c>
       <c r="C180">
         <v>1</v>
@@ -12134,7 +12134,7 @@
         <v>1</v>
       </c>
       <c r="H180">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>402</v>
@@ -12166,7 +12166,7 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.0003127040042493872</v>
+        <v>0.0003193693922613471</v>
       </c>
       <c r="C181">
         <v>1</v>
@@ -12184,7 +12184,7 @@
         <v>1</v>
       </c>
       <c r="H181">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>403</v>
@@ -12216,7 +12216,7 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.0003127040042493872</v>
+        <v>0.0003193693922613471</v>
       </c>
       <c r="C182">
         <v>1</v>
@@ -12234,7 +12234,7 @@
         <v>1</v>
       </c>
       <c r="H182">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>404</v>
@@ -12266,7 +12266,7 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.0003127040042493872</v>
+        <v>0.0003193693922613471</v>
       </c>
       <c r="C183">
         <v>1</v>
@@ -12284,7 +12284,7 @@
         <v>1</v>
       </c>
       <c r="H183">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>405</v>
@@ -12316,7 +12316,7 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.0003127040042493872</v>
+        <v>0.0003193693922613471</v>
       </c>
       <c r="C184">
         <v>1</v>
@@ -12334,7 +12334,7 @@
         <v>1</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>406</v>
@@ -12366,7 +12366,7 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.0003127040042493872</v>
+        <v>0.0003193693922613471</v>
       </c>
       <c r="C185">
         <v>1</v>
@@ -12384,7 +12384,7 @@
         <v>1</v>
       </c>
       <c r="H185">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>407</v>
@@ -12416,7 +12416,7 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.0003127040042493872</v>
+        <v>0.0003193693922613471</v>
       </c>
       <c r="C186">
         <v>1</v>
@@ -12466,7 +12466,7 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.0003127040042493872</v>
+        <v>0.0003193693922613471</v>
       </c>
       <c r="C187">
         <v>1</v>
@@ -12484,7 +12484,7 @@
         <v>1</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>409</v>
@@ -12516,7 +12516,7 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.0003127040042493872</v>
+        <v>0.0003193693922613471</v>
       </c>
       <c r="C188">
         <v>1</v>
@@ -12534,7 +12534,7 @@
         <v>1</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>410</v>
@@ -12566,25 +12566,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.0003127040042493872</v>
+        <v>0.0002820890855901234</v>
       </c>
       <c r="C189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D189">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E189">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="F189">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>411</v>
@@ -12616,25 +12616,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.0003127040042493872</v>
+        <v>0.0002416887644556495</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
       <c r="D190">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E190">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F190">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>412</v>
@@ -12666,25 +12666,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.0002762017549474345</v>
+        <v>0.0002416887644556495</v>
       </c>
       <c r="C191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D191">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E191">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="F191">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>413</v>
@@ -12716,7 +12716,7 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.0002366446073377068</v>
+        <v>0.0002416887644556495</v>
       </c>
       <c r="C192">
         <v>1</v>
@@ -12766,7 +12766,7 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.0002366446073377068</v>
+        <v>0.0002416887644556495</v>
       </c>
       <c r="C193">
         <v>1</v>
@@ -12784,7 +12784,7 @@
         <v>1</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>415</v>
@@ -12816,7 +12816,7 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.0002366446073377068</v>
+        <v>0.0002416887644556495</v>
       </c>
       <c r="C194">
         <v>1</v>
@@ -12834,7 +12834,7 @@
         <v>1</v>
       </c>
       <c r="H194">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>416</v>
@@ -12866,7 +12866,7 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.0002366446073377068</v>
+        <v>0.0002416887644556495</v>
       </c>
       <c r="C195">
         <v>1</v>
@@ -12884,7 +12884,7 @@
         <v>1</v>
       </c>
       <c r="H195">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>417</v>
@@ -12916,7 +12916,7 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.0002366446073377068</v>
+        <v>0.0002416887644556495</v>
       </c>
       <c r="C196">
         <v>1</v>
@@ -12934,7 +12934,7 @@
         <v>1</v>
       </c>
       <c r="H196">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>418</v>
@@ -12966,7 +12966,7 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.0002366446073377068</v>
+        <v>0.0002416887644556495</v>
       </c>
       <c r="C197">
         <v>1</v>
@@ -12984,7 +12984,7 @@
         <v>1</v>
       </c>
       <c r="H197">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>419</v>
@@ -13016,7 +13016,7 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.0002366446073377068</v>
+        <v>0.0002416887644556495</v>
       </c>
       <c r="C198">
         <v>1</v>
@@ -13034,7 +13034,7 @@
         <v>1</v>
       </c>
       <c r="H198">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>420</v>
@@ -13066,25 +13066,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.0002366446073377068</v>
+        <v>0.0002193290089305087</v>
       </c>
       <c r="C199">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D199">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E199">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F199">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>421</v>
@@ -13116,28 +13116,28 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.0002366446073377068</v>
+        <v>0.0002157139662468135</v>
       </c>
       <c r="C200">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D200">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E200">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="F200">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J200" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K200">
         <v>0.001191557461531838</v>
@@ -13166,13 +13166,13 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.0002147515103278744</v>
+        <v>0.0001550890295256881</v>
       </c>
       <c r="C201">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D201">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E201">
         <v>0.75</v>
@@ -13184,10 +13184,10 @@
         <v>1</v>
       </c>
       <c r="H201">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="J201" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K201">
         <v>0.001136301501433035</v>
@@ -13216,28 +13216,28 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.0002112119152692507</v>
+        <v>0.0001550890295256881</v>
       </c>
       <c r="C202">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D202">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E202">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="F202">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J202" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K202">
         <v>0.001131800456229916</v>
@@ -13266,7 +13266,7 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.0001518522492228935</v>
+        <v>0.0001550890295256881</v>
       </c>
       <c r="C203">
         <v>1</v>
@@ -13284,10 +13284,10 @@
         <v>1</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J203" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K203">
         <v>0.001096834844229904</v>
@@ -13316,7 +13316,7 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.0001518522492228935</v>
+        <v>0.0001550890295256881</v>
       </c>
       <c r="C204">
         <v>1</v>
@@ -13334,7 +13334,7 @@
         <v>1</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>422</v>
@@ -13366,7 +13366,7 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.0001518522492228935</v>
+        <v>0.0001550890295256881</v>
       </c>
       <c r="C205">
         <v>1</v>
@@ -13384,7 +13384,7 @@
         <v>1</v>
       </c>
       <c r="H205">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>423</v>
@@ -13416,7 +13416,7 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.0001518522492228935</v>
+        <v>0.0001550890295256881</v>
       </c>
       <c r="C206">
         <v>1</v>
@@ -13434,7 +13434,7 @@
         <v>1</v>
       </c>
       <c r="H206">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>424</v>
@@ -13466,7 +13466,7 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.0001518522492228935</v>
+        <v>0.0001550890295256881</v>
       </c>
       <c r="C207">
         <v>1</v>
@@ -13484,7 +13484,7 @@
         <v>1</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>425</v>
@@ -13516,7 +13516,7 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.0001518522492228935</v>
+        <v>0.0001550890295256881</v>
       </c>
       <c r="C208">
         <v>1</v>
@@ -13534,7 +13534,7 @@
         <v>1</v>
       </c>
       <c r="H208">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>426</v>
@@ -13566,7 +13566,7 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.0001518522492228935</v>
+        <v>0.0001550890295256881</v>
       </c>
       <c r="C209">
         <v>1</v>
@@ -13584,7 +13584,7 @@
         <v>1</v>
       </c>
       <c r="H209">
-        <v>4</v>
+        <v>296</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>427</v>
@@ -13616,25 +13616,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.0001518522492228935</v>
+        <v>0.0001093366054673609</v>
       </c>
       <c r="C210">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D210">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E210">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F210">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>428</v>
@@ -13666,25 +13666,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.0001518522492228935</v>
+        <v>8.927296453434437E-05</v>
       </c>
       <c r="C211">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D211">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E211">
-        <v>0.75</v>
+        <v>0.33</v>
       </c>
       <c r="F211">
-        <v>0.25</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>296</v>
+        <v>13</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>429</v>
@@ -13716,25 +13716,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.0001070546995708993</v>
+        <v>8.927296453434437E-05</v>
       </c>
       <c r="C212">
+        <v>2</v>
+      </c>
+      <c r="D212">
         <v>3</v>
       </c>
-      <c r="D212">
-        <v>9</v>
-      </c>
       <c r="E212">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="F212">
-        <v>0.33</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>430</v>
@@ -13766,7 +13766,7 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>8.740979617188459E-05</v>
+        <v>8.927296453434437E-05</v>
       </c>
       <c r="C213">
         <v>2</v>
@@ -13784,7 +13784,7 @@
         <v>1</v>
       </c>
       <c r="H213">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>431</v>
@@ -13816,25 +13816,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>8.740979617188459E-05</v>
+        <v>6.312551859886007E-05</v>
       </c>
       <c r="C214">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D214">
         <v>3</v>
       </c>
       <c r="E214">
+        <v>0.67</v>
+      </c>
+      <c r="F214">
         <v>0.33</v>
       </c>
-      <c r="F214">
-        <v>0.6699999999999999</v>
-      </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>432</v>
@@ -13866,19 +13866,19 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>8.740979617188459E-05</v>
+        <v>6.312551859886007E-05</v>
       </c>
       <c r="C215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D215">
         <v>3</v>
       </c>
       <c r="E215">
+        <v>0.67</v>
+      </c>
+      <c r="F215">
         <v>0.33</v>
-      </c>
-      <c r="F215">
-        <v>0.6699999999999999</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
@@ -13916,7 +13916,7 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>6.180805961527256E-05</v>
+        <v>6.312551859886007E-05</v>
       </c>
       <c r="C216">
         <v>1</v>
@@ -13934,7 +13934,7 @@
         <v>1</v>
       </c>
       <c r="H216">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>434</v>
@@ -13966,7 +13966,7 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>6.180805961527256E-05</v>
+        <v>6.312551859886007E-05</v>
       </c>
       <c r="C217">
         <v>1</v>
@@ -13984,7 +13984,7 @@
         <v>1</v>
       </c>
       <c r="H217">
-        <v>3</v>
+        <v>290</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>435</v>
@@ -14016,7 +14016,7 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>6.180805961527256E-05</v>
+        <v>6.312551859886007E-05</v>
       </c>
       <c r="C218">
         <v>1</v>
@@ -14034,7 +14034,7 @@
         <v>1</v>
       </c>
       <c r="H218">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>436</v>
@@ -14066,7 +14066,7 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>6.180805961527256E-05</v>
+        <v>6.312551859886007E-05</v>
       </c>
       <c r="C219">
         <v>1</v>
@@ -14084,7 +14084,7 @@
         <v>1</v>
       </c>
       <c r="H219">
-        <v>290</v>
+        <v>5</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>437</v>
@@ -14116,7 +14116,7 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>6.180805961527256E-05</v>
+        <v>6.312551859886007E-05</v>
       </c>
       <c r="C220">
         <v>1</v>
@@ -14134,7 +14134,7 @@
         <v>1</v>
       </c>
       <c r="H220">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>438</v>
@@ -14166,7 +14166,7 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>6.180805961527256E-05</v>
+        <v>6.312551859886007E-05</v>
       </c>
       <c r="C221">
         <v>1</v>
@@ -14184,7 +14184,7 @@
         <v>1</v>
       </c>
       <c r="H221">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>439</v>
@@ -14216,7 +14216,7 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>6.180805961527256E-05</v>
+        <v>6.312551859886007E-05</v>
       </c>
       <c r="C222">
         <v>1</v>
@@ -14234,7 +14234,7 @@
         <v>1</v>
       </c>
       <c r="H222">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>440</v>
@@ -14266,7 +14266,7 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>6.180805961527256E-05</v>
+        <v>6.312551859886007E-05</v>
       </c>
       <c r="C223">
         <v>1</v>
@@ -14284,7 +14284,7 @@
         <v>1</v>
       </c>
       <c r="H223">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>441</v>
@@ -14316,7 +14316,7 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>6.180805961527256E-05</v>
+        <v>6.312551859886007E-05</v>
       </c>
       <c r="C224">
         <v>1</v>
@@ -14334,7 +14334,7 @@
         <v>1</v>
       </c>
       <c r="H224">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>442</v>
@@ -14366,7 +14366,7 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>6.180805961527256E-05</v>
+        <v>6.312551859886007E-05</v>
       </c>
       <c r="C225">
         <v>1</v>
@@ -14384,7 +14384,7 @@
         <v>1</v>
       </c>
       <c r="H225">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>443</v>
@@ -14416,7 +14416,7 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>6.180805961527256E-05</v>
+        <v>6.312551859886007E-05</v>
       </c>
       <c r="C226">
         <v>1</v>
@@ -14434,7 +14434,7 @@
         <v>1</v>
       </c>
       <c r="H226">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>444</v>
@@ -14466,7 +14466,7 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>6.180805961527256E-05</v>
+        <v>6.312551859886007E-05</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -14484,7 +14484,7 @@
         <v>1</v>
       </c>
       <c r="H227">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>445</v>
@@ -14516,25 +14516,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>6.180805961527256E-05</v>
+        <v>3.084835609363445E-05</v>
       </c>
       <c r="C228">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D228">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E228">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="F228">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>446</v>
@@ -14566,25 +14566,25 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>6.180805961527256E-05</v>
+        <v>1.906781663238873E-05</v>
       </c>
       <c r="C229">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D229">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E229">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="F229">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>447</v>
@@ -14616,25 +14616,25 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>3.020453652958893E-05</v>
+        <v>0</v>
       </c>
       <c r="C230">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D230">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E230">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F230">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>448</v>
@@ -14666,25 +14666,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>1.866986241549944E-05</v>
+        <v>0</v>
       </c>
       <c r="C231">
+        <v>2</v>
+      </c>
+      <c r="D231">
+        <v>4</v>
+      </c>
+      <c r="E231">
+        <v>0.5</v>
+      </c>
+      <c r="F231">
+        <v>0.5</v>
+      </c>
+      <c r="G231" t="b">
+        <v>1</v>
+      </c>
+      <c r="H231">
         <v>3</v>
-      </c>
-      <c r="D231">
-        <v>7</v>
-      </c>
-      <c r="E231">
-        <v>0.57</v>
-      </c>
-      <c r="F231">
-        <v>0.43</v>
-      </c>
-      <c r="G231" t="b">
-        <v>1</v>
-      </c>
-      <c r="H231">
-        <v>8</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>449</v>
@@ -14734,7 +14734,7 @@
         <v>1</v>
       </c>
       <c r="H232">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>450</v>
@@ -14769,10 +14769,10 @@
         <v>0</v>
       </c>
       <c r="C233">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D233">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E233">
         <v>0.5</v>
@@ -14784,7 +14784,7 @@
         <v>1</v>
       </c>
       <c r="H233">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>451</v>
@@ -14834,7 +14834,7 @@
         <v>1</v>
       </c>
       <c r="H234">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>452</v>
@@ -14884,7 +14884,7 @@
         <v>1</v>
       </c>
       <c r="H235">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>453</v>
@@ -14934,7 +14934,7 @@
         <v>1</v>
       </c>
       <c r="H236">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>454</v>
@@ -14984,7 +14984,7 @@
         <v>1</v>
       </c>
       <c r="H237">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>455</v>
@@ -15013,7 +15013,7 @@
     </row>
     <row r="238" spans="1:17">
       <c r="A238" s="1" t="s">
-        <v>243</v>
+        <v>6</v>
       </c>
       <c r="B238">
         <v>0</v>
@@ -15034,7 +15034,7 @@
         <v>1</v>
       </c>
       <c r="H238">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>456</v>
@@ -15063,7 +15063,7 @@
     </row>
     <row r="239" spans="1:17">
       <c r="A239" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B239">
         <v>0</v>
@@ -15084,7 +15084,7 @@
         <v>1</v>
       </c>
       <c r="H239">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>457</v>
@@ -15112,30 +15112,6 @@
       </c>
     </row>
     <row r="240" spans="1:17">
-      <c r="A240" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B240">
-        <v>0</v>
-      </c>
-      <c r="C240">
-        <v>1</v>
-      </c>
-      <c r="D240">
-        <v>2</v>
-      </c>
-      <c r="E240">
-        <v>0.5</v>
-      </c>
-      <c r="F240">
-        <v>0.5</v>
-      </c>
-      <c r="G240" t="b">
-        <v>1</v>
-      </c>
-      <c r="H240">
-        <v>42</v>
-      </c>
       <c r="J240" s="1" t="s">
         <v>458</v>
       </c>
@@ -15161,31 +15137,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="241" spans="1:17">
-      <c r="A241" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B241">
-        <v>0</v>
-      </c>
-      <c r="C241">
-        <v>1</v>
-      </c>
-      <c r="D241">
-        <v>2</v>
-      </c>
-      <c r="E241">
-        <v>0.5</v>
-      </c>
-      <c r="F241">
-        <v>0.5</v>
-      </c>
-      <c r="G241" t="b">
-        <v>1</v>
-      </c>
-      <c r="H241">
-        <v>6</v>
-      </c>
+    <row r="241" spans="10:17">
       <c r="J241" s="1" t="s">
         <v>459</v>
       </c>
@@ -15211,7 +15163,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:17">
+    <row r="242" spans="10:17">
       <c r="J242" s="1" t="s">
         <v>460</v>
       </c>
@@ -15237,7 +15189,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="243" spans="1:17">
+    <row r="243" spans="10:17">
       <c r="J243" s="1" t="s">
         <v>461</v>
       </c>
@@ -15263,7 +15215,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="244" spans="1:17">
+    <row r="244" spans="10:17">
       <c r="J244" s="1" t="s">
         <v>462</v>
       </c>
@@ -15289,7 +15241,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="245" spans="1:17">
+    <row r="245" spans="10:17">
       <c r="J245" s="1" t="s">
         <v>463</v>
       </c>
@@ -15315,7 +15267,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="246" spans="1:17">
+    <row r="246" spans="10:17">
       <c r="J246" s="1" t="s">
         <v>464</v>
       </c>
@@ -15341,7 +15293,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="247" spans="1:17">
+    <row r="247" spans="10:17">
       <c r="J247" s="1" t="s">
         <v>465</v>
       </c>
@@ -15367,7 +15319,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="1:17">
+    <row r="248" spans="10:17">
       <c r="J248" s="1" t="s">
         <v>466</v>
       </c>
@@ -15393,7 +15345,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="249" spans="1:17">
+    <row r="249" spans="10:17">
       <c r="J249" s="1" t="s">
         <v>467</v>
       </c>
@@ -15419,7 +15371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:17">
+    <row r="250" spans="10:17">
       <c r="J250" s="1" t="s">
         <v>468</v>
       </c>
@@ -15445,7 +15397,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="251" spans="1:17">
+    <row r="251" spans="10:17">
       <c r="J251" s="1" t="s">
         <v>469</v>
       </c>
@@ -15471,7 +15423,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="252" spans="1:17">
+    <row r="252" spans="10:17">
       <c r="J252" s="1" t="s">
         <v>470</v>
       </c>
@@ -15497,7 +15449,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="253" spans="1:17">
+    <row r="253" spans="10:17">
       <c r="J253" s="1" t="s">
         <v>471</v>
       </c>
@@ -15523,7 +15475,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="254" spans="1:17">
+    <row r="254" spans="10:17">
       <c r="J254" s="1" t="s">
         <v>472</v>
       </c>
@@ -15549,7 +15501,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="255" spans="1:17">
+    <row r="255" spans="10:17">
       <c r="J255" s="1" t="s">
         <v>473</v>
       </c>
@@ -15575,7 +15527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:17">
+    <row r="256" spans="10:17">
       <c r="J256" s="1" t="s">
         <v>474</v>
       </c>
@@ -15603,7 +15555,7 @@
     </row>
     <row r="257" spans="10:17">
       <c r="J257" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K257">
         <v>0.001080109399760639</v>
@@ -15629,7 +15581,7 @@
     </row>
     <row r="258" spans="10:17">
       <c r="J258" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K258">
         <v>0.0009533429917830356</v>
@@ -15655,7 +15607,7 @@
     </row>
     <row r="259" spans="10:17">
       <c r="J259" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K259">
         <v>0.0009533429917830356</v>
@@ -17787,7 +17739,7 @@
     </row>
     <row r="341" spans="10:17">
       <c r="J341" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K341">
         <v>0.0009165061252314154</v>
@@ -17813,7 +17765,7 @@
     </row>
     <row r="342" spans="10:17">
       <c r="J342" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K342">
         <v>0.000856980724448376</v>
@@ -17839,7 +17791,7 @@
     </row>
     <row r="343" spans="10:17">
       <c r="J343" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K343">
         <v>0.000856980724448376</v>
@@ -17865,7 +17817,7 @@
     </row>
     <row r="344" spans="10:17">
       <c r="J344" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K344">
         <v>0.0008564431211382992</v>
@@ -17891,7 +17843,7 @@
     </row>
     <row r="345" spans="10:17">
       <c r="J345" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K345">
         <v>0.0008415907344312987</v>
@@ -17917,7 +17869,7 @@
     </row>
     <row r="346" spans="10:17">
       <c r="J346" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K346">
         <v>0.0008415907344312987</v>
@@ -17943,7 +17895,7 @@
     </row>
     <row r="347" spans="10:17">
       <c r="J347" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K347">
         <v>0.0008415907344312987</v>
@@ -17969,7 +17921,7 @@
     </row>
     <row r="348" spans="10:17">
       <c r="J348" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K348">
         <v>0.0008280908088601203</v>
@@ -21557,7 +21509,7 @@
     </row>
     <row r="486" spans="10:17">
       <c r="J486" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K486">
         <v>0.0007649336998696728</v>
@@ -21583,7 +21535,7 @@
     </row>
     <row r="487" spans="10:17">
       <c r="J487" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K487">
         <v>0.0007403282476983146</v>
@@ -21609,7 +21561,7 @@
     </row>
     <row r="488" spans="10:17">
       <c r="J488" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K488">
         <v>0.000646452762987664</v>
@@ -21635,7 +21587,7 @@
     </row>
     <row r="489" spans="10:17">
       <c r="J489" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K489">
         <v>0.000646452762987664</v>
@@ -21661,7 +21613,7 @@
     </row>
     <row r="490" spans="10:17">
       <c r="J490" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K490">
         <v>0.000646452762987664</v>
@@ -21687,7 +21639,7 @@
     </row>
     <row r="491" spans="10:17">
       <c r="J491" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K491">
         <v>0.000646452762987664</v>
@@ -21713,7 +21665,7 @@
     </row>
     <row r="492" spans="10:17">
       <c r="J492" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K492">
         <v>0.0006355547456519493</v>
@@ -21739,7 +21691,7 @@
     </row>
     <row r="493" spans="10:17">
       <c r="J493" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K493">
         <v>0.0006059768816036068</v>
@@ -21765,7 +21717,7 @@
     </row>
     <row r="494" spans="10:17">
       <c r="J494" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K494">
         <v>0.0006059768816036068</v>
@@ -21791,7 +21743,7 @@
     </row>
     <row r="495" spans="10:17">
       <c r="J495" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K495">
         <v>0.0006059768816036068</v>
@@ -21817,7 +21769,7 @@
     </row>
     <row r="496" spans="10:17">
       <c r="J496" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K496">
         <v>0.000590401715623057</v>
@@ -21843,7 +21795,7 @@
     </row>
     <row r="497" spans="10:17">
       <c r="J497" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K497">
         <v>0.0005649920817956018</v>
@@ -21869,7 +21821,7 @@
     </row>
     <row r="498" spans="10:17">
       <c r="J498" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K498">
         <v>0.0005649920817956018</v>
@@ -28395,7 +28347,7 @@
     </row>
     <row r="749" spans="10:17">
       <c r="J749" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K749">
         <v>0.0005291937306646375</v>
@@ -28421,7 +28373,7 @@
     </row>
     <row r="750" spans="10:17">
       <c r="J750" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K750">
         <v>0.0005234911242514323</v>
@@ -28447,7 +28399,7 @@
     </row>
     <row r="751" spans="10:17">
       <c r="J751" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K751">
         <v>0.0005234911242514323</v>
@@ -28473,7 +28425,7 @@
     </row>
     <row r="752" spans="10:17">
       <c r="J752" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K752">
         <v>0.0004814709455635351</v>
@@ -28499,7 +28451,7 @@
     </row>
     <row r="753" spans="10:17">
       <c r="J753" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K753">
         <v>0.0004814709455635351</v>
@@ -28525,7 +28477,7 @@
     </row>
     <row r="754" spans="10:17">
       <c r="J754" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K754">
         <v>0.0004814709455635351</v>
@@ -28551,7 +28503,7 @@
     </row>
     <row r="755" spans="10:17">
       <c r="J755" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K755">
         <v>0.0004673467698512262</v>
@@ -28577,7 +28529,7 @@
     </row>
     <row r="756" spans="10:17">
       <c r="J756" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K756">
         <v>0.0004389349068831922</v>
@@ -28603,7 +28555,7 @@
     </row>
     <row r="757" spans="10:17">
       <c r="J757" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K757">
         <v>0.0004389349068831922</v>
@@ -28629,7 +28581,7 @@
     </row>
     <row r="758" spans="10:17">
       <c r="J758" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K758">
         <v>0.0004389349068831922</v>
@@ -28655,7 +28607,7 @@
     </row>
     <row r="759" spans="10:17">
       <c r="J759" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K759">
         <v>0.0004389349068831922</v>
@@ -28681,7 +28633,7 @@
     </row>
     <row r="760" spans="10:17">
       <c r="J760" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K760">
         <v>0.0003958962247699333</v>
@@ -28707,7 +28659,7 @@
     </row>
     <row r="761" spans="10:17">
       <c r="J761" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K761">
         <v>0.0003958962247699333</v>
@@ -28733,7 +28685,7 @@
     </row>
     <row r="762" spans="10:17">
       <c r="J762" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K762">
         <v>0.0003958962247699333</v>
@@ -28759,7 +28711,7 @@
     </row>
     <row r="763" spans="10:17">
       <c r="J763" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K763">
         <v>0.0003523833167765486</v>
@@ -28785,7 +28737,7 @@
     </row>
     <row r="764" spans="10:17">
       <c r="J764" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K764">
         <v>0.0003421936790090566</v>
@@ -28811,7 +28763,7 @@
     </row>
     <row r="765" spans="10:17">
       <c r="J765" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K765">
         <v>0.0003107514913134394</v>
@@ -28837,7 +28789,7 @@
     </row>
     <row r="766" spans="10:17">
       <c r="J766" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K766">
         <v>0.0003084483496750098</v>
@@ -28863,7 +28815,7 @@
     </row>
     <row r="767" spans="10:17">
       <c r="J767" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K767">
         <v>0.0002641813550635185</v>
@@ -28889,7 +28841,7 @@
     </row>
     <row r="768" spans="10:17">
       <c r="J768" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K768">
         <v>0.0002641813550635185</v>
@@ -28915,7 +28867,7 @@
     </row>
     <row r="769" spans="10:17">
       <c r="J769" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K769">
         <v>0.0002641813550635185</v>
@@ -28941,7 +28893,7 @@
     </row>
     <row r="770" spans="10:17">
       <c r="J770" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K770">
         <v>0.0002641813550635185</v>
@@ -28967,7 +28919,7 @@
     </row>
     <row r="771" spans="10:17">
       <c r="J771" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K771">
         <v>0.0002641813550635185</v>
@@ -28993,7 +28945,7 @@
     </row>
     <row r="772" spans="10:17">
       <c r="J772" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K772">
         <v>0.0002641813550635185</v>
@@ -29019,7 +28971,7 @@
     </row>
     <row r="773" spans="10:17">
       <c r="J773" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K773">
         <v>0.0002641813550635185</v>
@@ -29045,7 +28997,7 @@
     </row>
     <row r="774" spans="10:17">
       <c r="J774" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K774">
         <v>0.0002641813550635185</v>
@@ -29071,7 +29023,7 @@
     </row>
     <row r="775" spans="10:17">
       <c r="J775" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K775">
         <v>0.0002641813550635185</v>
@@ -29097,7 +29049,7 @@
     </row>
     <row r="776" spans="10:17">
       <c r="J776" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K776">
         <v>0.0002641813550635185</v>
@@ -29123,7 +29075,7 @@
     </row>
     <row r="777" spans="10:17">
       <c r="J777" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K777">
         <v>0.0002641813550635185</v>
@@ -29149,7 +29101,7 @@
     </row>
     <row r="778" spans="10:17">
       <c r="J778" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K778">
         <v>0.0002641813550635185</v>
@@ -29201,7 +29153,7 @@
     </row>
     <row r="780" spans="10:17">
       <c r="J780" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K780">
         <v>0.0002480047671009441</v>
@@ -29227,7 +29179,7 @@
     </row>
     <row r="781" spans="10:17">
       <c r="J781" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K781">
         <v>0.0002480047671009441</v>
@@ -29253,7 +29205,7 @@
     </row>
     <row r="782" spans="10:17">
       <c r="J782" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K782">
         <v>0.000219734486771566</v>
@@ -29279,7 +29231,7 @@
     </row>
     <row r="783" spans="10:17">
       <c r="J783" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K783">
         <v>0.000219734486771566</v>
@@ -29305,7 +29257,7 @@
     </row>
     <row r="784" spans="10:17">
       <c r="J784" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K784">
         <v>0.000219734486771566</v>
@@ -29331,7 +29283,7 @@
     </row>
     <row r="785" spans="10:17">
       <c r="J785" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K785">
         <v>0.000219734486771566</v>
@@ -29357,7 +29309,7 @@
     </row>
     <row r="786" spans="10:17">
       <c r="J786" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K786">
         <v>0.000219734486771566</v>
@@ -29383,7 +29335,7 @@
     </row>
     <row r="787" spans="10:17">
       <c r="J787" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K787">
         <v>0.000219734486771566</v>
@@ -29409,7 +29361,7 @@
     </row>
     <row r="788" spans="10:17">
       <c r="J788" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K788">
         <v>0.000219734486771566</v>
@@ -29435,7 +29387,7 @@
     </row>
     <row r="789" spans="10:17">
       <c r="J789" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K789">
         <v>0.0002168552278297352</v>
@@ -29461,7 +29413,7 @@
     </row>
     <row r="790" spans="10:17">
       <c r="J790" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K790">
         <v>0.000175365852583668</v>
@@ -29487,7 +29439,7 @@
     </row>
     <row r="791" spans="10:17">
       <c r="J791" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K791">
         <v>0.000175365852583668</v>
@@ -29513,7 +29465,7 @@
     </row>
     <row r="792" spans="10:17">
       <c r="J792" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K792">
         <v>0.000175365852583668</v>
@@ -29539,7 +29491,7 @@
     </row>
     <row r="793" spans="10:17">
       <c r="J793" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K793">
         <v>0.000175365852583668</v>
@@ -29565,7 +29517,7 @@
     </row>
     <row r="794" spans="10:17">
       <c r="J794" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K794">
         <v>0.000155609891397133</v>
@@ -29591,7 +29543,7 @@
     </row>
     <row r="795" spans="10:17">
       <c r="J795" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K795">
         <v>0.0001374554597371912</v>
@@ -29617,7 +29569,7 @@
     </row>
     <row r="796" spans="10:17">
       <c r="J796" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K796">
         <v>0.0001315239931072661</v>
@@ -29643,7 +29595,7 @@
     </row>
     <row r="797" spans="10:17">
       <c r="J797" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K797">
         <v>0.0001315239931072661</v>
@@ -29669,7 +29621,7 @@
     </row>
     <row r="798" spans="10:17">
       <c r="J798" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K798">
         <v>0.0001315239931072661</v>
@@ -29695,7 +29647,7 @@
     </row>
     <row r="799" spans="10:17">
       <c r="J799" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K799">
         <v>0.0001315239931072661</v>
@@ -29721,7 +29673,7 @@
     </row>
     <row r="800" spans="10:17">
       <c r="J800" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K800">
         <v>0.0001315239931072661</v>
@@ -29747,7 +29699,7 @@
     </row>
     <row r="801" spans="10:17">
       <c r="J801" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K801">
         <v>0.0001315239931072661</v>
@@ -29773,7 +29725,7 @@
     </row>
     <row r="802" spans="10:17">
       <c r="J802" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K802">
         <v>0.0001315239931072661</v>
@@ -29799,7 +29751,7 @@
     </row>
     <row r="803" spans="10:17">
       <c r="J803" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K803">
         <v>0.0001315239931072661</v>
@@ -29825,7 +29777,7 @@
     </row>
     <row r="804" spans="10:17">
       <c r="J804" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K804">
         <v>0.0001315239931072661</v>
@@ -29851,7 +29803,7 @@
     </row>
     <row r="805" spans="10:17">
       <c r="J805" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K805">
         <v>0.0001315239931072661</v>
@@ -29877,7 +29829,7 @@
     </row>
     <row r="806" spans="10:17">
       <c r="J806" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K806">
         <v>0.0001315239931072661</v>
@@ -29903,7 +29855,7 @@
     </row>
     <row r="807" spans="10:17">
       <c r="J807" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K807">
         <v>0.0001315239931072661</v>
@@ -29929,7 +29881,7 @@
     </row>
     <row r="808" spans="10:17">
       <c r="J808" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K808">
         <v>0.0001259007005653297</v>
@@ -29955,7 +29907,7 @@
     </row>
     <row r="809" spans="10:17">
       <c r="J809" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K809">
         <v>9.719568769128237E-05</v>
@@ -29981,7 +29933,7 @@
     </row>
     <row r="810" spans="10:17">
       <c r="J810" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K810">
         <v>8.902523912588165E-05</v>
@@ -30007,7 +29959,7 @@
     </row>
     <row r="811" spans="10:17">
       <c r="J811" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K811">
         <v>8.902523912588165E-05</v>
@@ -30033,7 +29985,7 @@
     </row>
     <row r="812" spans="10:17">
       <c r="J812" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K812">
         <v>8.902523912588165E-05</v>
@@ -30059,7 +30011,7 @@
     </row>
     <row r="813" spans="10:17">
       <c r="J813" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K813">
         <v>8.902523912588165E-05</v>
@@ -30085,7 +30037,7 @@
     </row>
     <row r="814" spans="10:17">
       <c r="J814" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K814">
         <v>8.902523912588165E-05</v>
@@ -30111,7 +30063,7 @@
     </row>
     <row r="815" spans="10:17">
       <c r="J815" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K815">
         <v>8.902523912588165E-05</v>
@@ -30137,7 +30089,7 @@
     </row>
     <row r="816" spans="10:17">
       <c r="J816" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K816">
         <v>8.902523912588165E-05</v>
@@ -30163,7 +30115,7 @@
     </row>
     <row r="817" spans="10:17">
       <c r="J817" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K817">
         <v>8.902523912588165E-05</v>
@@ -30189,7 +30141,7 @@
     </row>
     <row r="818" spans="10:17">
       <c r="J818" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K818">
         <v>8.902523912588165E-05</v>
@@ -30215,7 +30167,7 @@
     </row>
     <row r="819" spans="10:17">
       <c r="J819" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K819">
         <v>6.996541189826975E-05</v>
@@ -30241,7 +30193,7 @@
     </row>
     <row r="820" spans="10:17">
       <c r="J820" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K820">
         <v>6.487678527542351E-05</v>
@@ -30267,7 +30219,7 @@
     </row>
     <row r="821" spans="10:17">
       <c r="J821" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K821">
         <v>4.947301720177649E-05</v>
@@ -30293,7 +30245,7 @@
     </row>
     <row r="822" spans="10:17">
       <c r="J822" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K822">
         <v>4.947301720177649E-05</v>
@@ -30319,7 +30271,7 @@
     </row>
     <row r="823" spans="10:17">
       <c r="J823" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K823">
         <v>4.947301720177649E-05</v>
@@ -30345,7 +30297,7 @@
     </row>
     <row r="824" spans="10:17">
       <c r="J824" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K824">
         <v>4.947301720177649E-05</v>
@@ -30371,7 +30323,7 @@
     </row>
     <row r="825" spans="10:17">
       <c r="J825" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K825">
         <v>4.947301720177649E-05</v>
@@ -30397,7 +30349,7 @@
     </row>
     <row r="826" spans="10:17">
       <c r="J826" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K826">
         <v>4.947301720177649E-05</v>
@@ -30423,7 +30375,7 @@
     </row>
     <row r="827" spans="10:17">
       <c r="J827" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K827">
         <v>4.947301720177649E-05</v>
@@ -30449,7 +30401,7 @@
     </row>
     <row r="828" spans="10:17">
       <c r="J828" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K828">
         <v>4.947301720177649E-05</v>
@@ -30475,7 +30427,7 @@
     </row>
     <row r="829" spans="10:17">
       <c r="J829" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K829">
         <v>4.947301720177649E-05</v>
@@ -30501,7 +30453,7 @@
     </row>
     <row r="830" spans="10:17">
       <c r="J830" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K830">
         <v>2.847785509760771E-05</v>
@@ -30527,7 +30479,7 @@
     </row>
     <row r="831" spans="10:17">
       <c r="J831" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K831">
         <v>1.644169730654723E-05</v>
@@ -30553,7 +30505,7 @@
     </row>
     <row r="832" spans="10:17">
       <c r="J832" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K832">
         <v>1.644169730654723E-05</v>
@@ -30579,7 +30531,7 @@
     </row>
     <row r="833" spans="10:17">
       <c r="J833" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K833">
         <v>1.644169730654723E-05</v>
@@ -30605,7 +30557,7 @@
     </row>
     <row r="834" spans="10:17">
       <c r="J834" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K834">
         <v>1.644169730654723E-05</v>
@@ -30631,7 +30583,7 @@
     </row>
     <row r="835" spans="10:17">
       <c r="J835" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K835">
         <v>1.644169730654723E-05</v>
@@ -30657,7 +30609,7 @@
     </row>
     <row r="836" spans="10:17">
       <c r="J836" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K836">
         <v>1.644169730654723E-05</v>
@@ -30683,7 +30635,7 @@
     </row>
     <row r="837" spans="10:17">
       <c r="J837" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K837">
         <v>1.644169730654723E-05</v>
@@ -30709,7 +30661,7 @@
     </row>
     <row r="838" spans="10:17">
       <c r="J838" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K838">
         <v>1.644169730654723E-05</v>
@@ -30735,7 +30687,7 @@
     </row>
     <row r="839" spans="10:17">
       <c r="J839" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K839">
         <v>1.644169730654723E-05</v>
@@ -30761,7 +30713,7 @@
     </row>
     <row r="840" spans="10:17">
       <c r="J840" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K840">
         <v>1.644169730654723E-05</v>
@@ -30787,7 +30739,7 @@
     </row>
     <row r="841" spans="10:17">
       <c r="J841" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K841">
         <v>1.644169730654723E-05</v>
@@ -30813,7 +30765,7 @@
     </row>
     <row r="842" spans="10:17">
       <c r="J842" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K842">
         <v>1.644169730654723E-05</v>
@@ -30839,7 +30791,7 @@
     </row>
     <row r="843" spans="10:17">
       <c r="J843" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K843">
         <v>1.644169730654723E-05</v>
@@ -30865,7 +30817,7 @@
     </row>
     <row r="844" spans="10:17">
       <c r="J844" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K844">
         <v>1.644169730654723E-05</v>
@@ -30891,7 +30843,7 @@
     </row>
     <row r="845" spans="10:17">
       <c r="J845" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K845">
         <v>1.162603565967596E-05</v>
@@ -30917,7 +30869,7 @@
     </row>
     <row r="846" spans="10:17">
       <c r="J846" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K846">
         <v>1.162603565967596E-05</v>
@@ -30943,7 +30895,7 @@
     </row>
     <row r="847" spans="10:17">
       <c r="J847" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K847">
         <v>1.162603565967596E-05</v>
@@ -30969,7 +30921,7 @@
     </row>
     <row r="848" spans="10:17">
       <c r="J848" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K848">
         <v>6.958319189553474E-06</v>
@@ -30995,7 +30947,7 @@
     </row>
     <row r="849" spans="10:17">
       <c r="J849" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K849">
         <v>4.055057593433202E-06</v>
@@ -31047,7 +30999,7 @@
     </row>
     <row r="851" spans="10:17">
       <c r="J851" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K851">
         <v>0</v>
@@ -31073,7 +31025,7 @@
     </row>
     <row r="852" spans="10:17">
       <c r="J852" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K852">
         <v>0</v>
@@ -31099,7 +31051,7 @@
     </row>
     <row r="853" spans="10:17">
       <c r="J853" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K853">
         <v>0</v>
@@ -31125,7 +31077,7 @@
     </row>
     <row r="854" spans="10:17">
       <c r="J854" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K854">
         <v>0</v>
@@ -31151,7 +31103,7 @@
     </row>
     <row r="855" spans="10:17">
       <c r="J855" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K855">
         <v>0</v>
@@ -31177,7 +31129,7 @@
     </row>
     <row r="856" spans="10:17">
       <c r="J856" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K856">
         <v>0</v>
@@ -31203,7 +31155,7 @@
     </row>
     <row r="857" spans="10:17">
       <c r="J857" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K857">
         <v>0</v>
@@ -31229,7 +31181,7 @@
     </row>
     <row r="858" spans="10:17">
       <c r="J858" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K858">
         <v>0</v>
@@ -31255,7 +31207,7 @@
     </row>
     <row r="859" spans="10:17">
       <c r="J859" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K859">
         <v>0</v>
